--- a/Hystertic model notes.xlsx
+++ b/Hystertic model notes.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CUREE" sheetId="1" r:id="rId1"/>
-    <sheet name="EPHM" sheetId="2" r:id="rId2"/>
+    <sheet name="Simple EQ" sheetId="3" r:id="rId1"/>
+    <sheet name="CUREE" sheetId="1" r:id="rId2"/>
+    <sheet name="EPHM" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -534,10 +535,1686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection sqref="A1:C151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.02</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.04</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.06</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.08</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.22</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.24</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.26</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.32</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.34</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.36</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.38</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.42</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.44</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0.46</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0.48</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0.5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0.52</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0.54</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0.6</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0.62</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0.64</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0.66</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0.68</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0.7</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0.72</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0.74</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0.76</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0.78</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0.8</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0.82</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0.84</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0.86</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0.88</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0.9</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0.92</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>0.94</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0.96</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>0.98</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1.02</v>
+      </c>
+      <c r="B52">
+        <v>0.8</v>
+      </c>
+      <c r="C52">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1.04</v>
+      </c>
+      <c r="B53">
+        <v>0.6</v>
+      </c>
+      <c r="C53">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1.06</v>
+      </c>
+      <c r="B54">
+        <v>0.4</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1.08</v>
+      </c>
+      <c r="B55">
+        <v>0.2</v>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B57">
+        <v>-0.2</v>
+      </c>
+      <c r="C57">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B58">
+        <v>-0.4</v>
+      </c>
+      <c r="C58">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B59">
+        <v>-0.8</v>
+      </c>
+      <c r="C59">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1.18</v>
+      </c>
+      <c r="B60">
+        <v>-1</v>
+      </c>
+      <c r="C60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1.2</v>
+      </c>
+      <c r="B61">
+        <v>-2</v>
+      </c>
+      <c r="C61">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1.22</v>
+      </c>
+      <c r="B62">
+        <v>-2</v>
+      </c>
+      <c r="C62">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1.24</v>
+      </c>
+      <c r="B63">
+        <v>-2</v>
+      </c>
+      <c r="C63">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1.26</v>
+      </c>
+      <c r="B64">
+        <v>-2</v>
+      </c>
+      <c r="C64">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1.28</v>
+      </c>
+      <c r="B65">
+        <v>-2</v>
+      </c>
+      <c r="C65">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1.3</v>
+      </c>
+      <c r="B66">
+        <v>-2</v>
+      </c>
+      <c r="C66">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1.32</v>
+      </c>
+      <c r="B67">
+        <v>-2</v>
+      </c>
+      <c r="C67">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1.34</v>
+      </c>
+      <c r="B68">
+        <v>-2</v>
+      </c>
+      <c r="C68">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1.36</v>
+      </c>
+      <c r="B69">
+        <v>-2</v>
+      </c>
+      <c r="C69">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1.38</v>
+      </c>
+      <c r="B70">
+        <v>-2</v>
+      </c>
+      <c r="C70">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1.4</v>
+      </c>
+      <c r="B71">
+        <v>-2</v>
+      </c>
+      <c r="C71">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1.42</v>
+      </c>
+      <c r="B72">
+        <v>-2</v>
+      </c>
+      <c r="C72">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1.44</v>
+      </c>
+      <c r="B73">
+        <v>-2</v>
+      </c>
+      <c r="C73">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1.46</v>
+      </c>
+      <c r="B74">
+        <v>-2</v>
+      </c>
+      <c r="C74">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1.48</v>
+      </c>
+      <c r="B75">
+        <v>-2</v>
+      </c>
+      <c r="C75">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1.5</v>
+      </c>
+      <c r="B76">
+        <v>-2</v>
+      </c>
+      <c r="C76">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1.52</v>
+      </c>
+      <c r="B77">
+        <v>-2</v>
+      </c>
+      <c r="C77">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1.54</v>
+      </c>
+      <c r="B78">
+        <v>-2</v>
+      </c>
+      <c r="C78">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1.56</v>
+      </c>
+      <c r="B79">
+        <v>-2</v>
+      </c>
+      <c r="C79">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1.58</v>
+      </c>
+      <c r="B80">
+        <v>-2</v>
+      </c>
+      <c r="C80">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1.6</v>
+      </c>
+      <c r="B81">
+        <v>-2</v>
+      </c>
+      <c r="C81">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1.62</v>
+      </c>
+      <c r="B82">
+        <v>-2</v>
+      </c>
+      <c r="C82">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1.64</v>
+      </c>
+      <c r="B83">
+        <v>-2</v>
+      </c>
+      <c r="C83">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>1.66</v>
+      </c>
+      <c r="B84">
+        <v>-2</v>
+      </c>
+      <c r="C84">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1.68</v>
+      </c>
+      <c r="B85">
+        <v>-2</v>
+      </c>
+      <c r="C85">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1.7</v>
+      </c>
+      <c r="B86">
+        <v>-1.5</v>
+      </c>
+      <c r="C86">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1.72</v>
+      </c>
+      <c r="B87">
+        <v>-1</v>
+      </c>
+      <c r="C87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1.74</v>
+      </c>
+      <c r="B88">
+        <v>-0.5</v>
+      </c>
+      <c r="C88">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1.76</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1.78</v>
+      </c>
+      <c r="B90">
+        <v>0.5</v>
+      </c>
+      <c r="C90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1.8</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>1.82</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>1.84</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>1.86</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>1.88</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>1.9</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>1.92</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1.94</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1.96</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>1.98</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2.02</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2.04</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2.06</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2.08</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2.1</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2.12</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2.14</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2.16</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2.34</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2.36</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2.38</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2.4</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2.42</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2.44</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2.46</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2.48</v>
+      </c>
+      <c r="B125">
+        <v>-1</v>
+      </c>
+      <c r="C125">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2.5</v>
+      </c>
+      <c r="B126">
+        <v>-2</v>
+      </c>
+      <c r="C126">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2.52</v>
+      </c>
+      <c r="B127">
+        <v>-3</v>
+      </c>
+      <c r="C127">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2.54</v>
+      </c>
+      <c r="B128">
+        <v>-4</v>
+      </c>
+      <c r="C128">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2.56</v>
+      </c>
+      <c r="B129">
+        <v>-4</v>
+      </c>
+      <c r="C129">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2.58</v>
+      </c>
+      <c r="B130">
+        <v>-4</v>
+      </c>
+      <c r="C130">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2.6</v>
+      </c>
+      <c r="B131">
+        <v>-4</v>
+      </c>
+      <c r="C131">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2.62</v>
+      </c>
+      <c r="B132">
+        <v>-4</v>
+      </c>
+      <c r="C132">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2.64</v>
+      </c>
+      <c r="B133">
+        <v>-4</v>
+      </c>
+      <c r="C133">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2.66</v>
+      </c>
+      <c r="B134">
+        <v>-4</v>
+      </c>
+      <c r="C134">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2.68</v>
+      </c>
+      <c r="B135">
+        <v>-4</v>
+      </c>
+      <c r="C135">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2.7</v>
+      </c>
+      <c r="B136">
+        <v>-4</v>
+      </c>
+      <c r="C136">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2.72</v>
+      </c>
+      <c r="B137">
+        <v>-4</v>
+      </c>
+      <c r="C137">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2.74</v>
+      </c>
+      <c r="B138">
+        <v>-4</v>
+      </c>
+      <c r="C138">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2.76</v>
+      </c>
+      <c r="B139">
+        <v>-4</v>
+      </c>
+      <c r="C139">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2.78</v>
+      </c>
+      <c r="B140">
+        <v>-4</v>
+      </c>
+      <c r="C140">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2.8</v>
+      </c>
+      <c r="B141">
+        <v>-4</v>
+      </c>
+      <c r="C141">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2.82</v>
+      </c>
+      <c r="B142">
+        <v>-4</v>
+      </c>
+      <c r="C142">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2.84</v>
+      </c>
+      <c r="B143">
+        <v>-4</v>
+      </c>
+      <c r="C143">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2.86</v>
+      </c>
+      <c r="B144">
+        <v>-4</v>
+      </c>
+      <c r="C144">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2.88</v>
+      </c>
+      <c r="B145">
+        <v>-4</v>
+      </c>
+      <c r="C145">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2.9</v>
+      </c>
+      <c r="B146">
+        <v>-4</v>
+      </c>
+      <c r="C146">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2.92</v>
+      </c>
+      <c r="B147">
+        <v>-4</v>
+      </c>
+      <c r="C147">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2.94</v>
+      </c>
+      <c r="B148">
+        <v>-4</v>
+      </c>
+      <c r="C148">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2.96</v>
+      </c>
+      <c r="B149">
+        <v>-4</v>
+      </c>
+      <c r="C149">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2.98</v>
+      </c>
+      <c r="B150">
+        <v>-4</v>
+      </c>
+      <c r="C150">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>-4</v>
+      </c>
+      <c r="C151">
+        <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,7 +2560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Hystertic model notes.xlsx
+++ b/Hystertic model notes.xlsx
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
